--- a/Model Scores.xlsx
+++ b/Model Scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6982596f550c74c3/Bootcamp/Project2/Project-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3CDE038-7EA0-41E0-9EF1-66D84E7B0830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{E3CDE038-7EA0-41E0-9EF1-66D84E7B0830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDE3FB67-F3E6-4008-A6BD-210F48104844}"/>
   <bookViews>
-    <workbookView xWindow="-20790" yWindow="1140" windowWidth="18570" windowHeight="15000" xr2:uid="{F3E0BA6A-7311-43D4-BCC9-C687FAE6B9DD}"/>
+    <workbookView xWindow="-26550" yWindow="210" windowWidth="18570" windowHeight="15000" xr2:uid="{F3E0BA6A-7311-43D4-BCC9-C687FAE6B9DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Logistic Regression</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>KNN with 5 clusters</t>
+  </si>
+  <si>
+    <t>Polynomial Features</t>
+  </si>
+  <si>
+    <t>Grid Search</t>
   </si>
 </sst>
 </file>
@@ -477,99 +483,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64203A6E-0BE4-4344-B0DC-4F975F524A25}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="3" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0.97599999999999998</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="2">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>0.97599999999999998</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>0.98399999999999999</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>0.83599999999999997</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>0.94399999999999995</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>0.96799999999999997</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2">
         <v>0.97599999999999998</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
